--- a/v2/Entities/Email (Email).xlsx
+++ b/v2/Entities/Email (Email).xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uilan\Meu Drive\Off\Uilan\Curso Dev Full Stack - Turma 001\Documentations\Entities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FullDevProjects\v2\Entities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C134509-E505-43A5-A504-18BF160D0EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8E4783-FFD2-40C7-A26E-73B8367DA6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000"/>
+  <calcPr calcId="140000" refMode="R1C1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -573,7 +573,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -683,7 +683,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="6">
-        <v>150</v>
+        <v>255</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>7</v>
